--- a/01ИТ.xlsx
+++ b/01ИТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\01IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A522DBE8-DB2F-4B24-BEE3-208D53B03690}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850ECD5C-315B-4F82-AC87-43F4C8823D27}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>Оценка:</t>
-  </si>
-  <si>
     <t>Л.Р. 6</t>
   </si>
   <si>
     <t>Л.Р. 7</t>
+  </si>
+  <si>
+    <t>ФИО</t>
   </si>
 </sst>
 </file>
@@ -158,11 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -170,12 +173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,47 +480,47 @@
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -566,10 +563,9 @@
       <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -589,9 +585,8 @@
         <f>SUM(B3:O3)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -607,10 +602,12 @@
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P16" si="0">SUM(B4:O4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -626,10 +623,12 @@
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -645,10 +644,12 @@
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -664,10 +665,12 @@
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -683,10 +686,12 @@
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -702,10 +707,12 @@
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -721,10 +728,12 @@
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -740,10 +749,12 @@
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -759,10 +770,12 @@
       <c r="M12" s="2"/>
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -778,10 +791,12 @@
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -797,10 +812,12 @@
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -816,10 +833,12 @@
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -835,12 +854,14 @@
       <c r="M16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
